--- a/NoteBook/task and schedule plans and actual/TASK_Oscar_Ciclo2.xlsx
+++ b/NoteBook/task and schedule plans and actual/TASK_Oscar_Ciclo2.xlsx
@@ -449,6 +449,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -467,6 +479,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -482,24 +512,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -509,23 +521,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,12 +854,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -868,199 +868,199 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="23"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="35">
         <v>41749</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="31">
         <v>2</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="15" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="15" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="15" t="s">
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
     </row>
     <row r="13" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="15" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -1098,11 +1098,11 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="15" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="10">
@@ -1141,11 +1141,11 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="36" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="15" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="10">
@@ -1184,9 +1184,9 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="10">
@@ -1225,9 +1225,9 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="15" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="10">
@@ -1266,11 +1266,11 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="36" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="11">
@@ -1309,9 +1309,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="11">
@@ -1350,9 +1350,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="11">
@@ -1387,9 +1387,9 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="11">
@@ -1428,9 +1428,9 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="15" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="11">
@@ -1457,19 +1457,23 @@
         <f t="shared" si="1"/>
         <v>34.400000000000006</v>
       </c>
-      <c r="K23" s="9"/>
+      <c r="K23" s="9">
+        <v>0.5</v>
+      </c>
       <c r="L23" s="7">
         <f t="shared" si="2"/>
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="M23" s="9"/>
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="M23" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="36" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="15" t="s">
         <v>47</v>
       </c>
       <c r="D24" s="12">
@@ -1496,17 +1500,21 @@
         <f t="shared" si="1"/>
         <v>41.800000000000004</v>
       </c>
-      <c r="K24" s="9"/>
+      <c r="K24" s="9">
+        <v>1</v>
+      </c>
       <c r="L24" s="7">
         <f t="shared" si="2"/>
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="M24" s="9"/>
+        <v>10.62</v>
+      </c>
+      <c r="M24" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="12">
@@ -1533,17 +1541,21 @@
         <f t="shared" si="1"/>
         <v>52.900000000000006</v>
       </c>
-      <c r="K25" s="9"/>
+      <c r="K25" s="9">
+        <v>2</v>
+      </c>
       <c r="L25" s="7">
         <f t="shared" si="2"/>
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="M25" s="9"/>
+        <v>12.62</v>
+      </c>
+      <c r="M25" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="15" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="12">
@@ -1570,19 +1582,23 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="K26" s="9"/>
+      <c r="K26" s="9">
+        <v>2</v>
+      </c>
       <c r="L26" s="7">
         <f t="shared" si="2"/>
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="M26" s="9"/>
+        <v>14.62</v>
+      </c>
+      <c r="M26" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D27" s="12">
@@ -1609,17 +1625,21 @@
         <f t="shared" si="1"/>
         <v>67.7</v>
       </c>
-      <c r="K27" s="9"/>
+      <c r="K27" s="9">
+        <v>1</v>
+      </c>
       <c r="L27" s="7">
         <f t="shared" si="2"/>
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="M27" s="9"/>
+        <v>15.62</v>
+      </c>
+      <c r="M27" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="36"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D28" s="12">
@@ -1646,17 +1666,21 @@
         <f t="shared" si="1"/>
         <v>71.400000000000006</v>
       </c>
-      <c r="K28" s="9"/>
+      <c r="K28" s="9">
+        <v>0.5</v>
+      </c>
       <c r="L28" s="7">
         <f t="shared" si="2"/>
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="M28" s="9"/>
+        <v>16.119999999999997</v>
+      </c>
+      <c r="M28" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="36"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="12">
@@ -1683,17 +1707,21 @@
         <f t="shared" si="1"/>
         <v>78.800000000000011</v>
       </c>
-      <c r="K29" s="9"/>
+      <c r="K29" s="9">
+        <v>1</v>
+      </c>
       <c r="L29" s="7">
         <f t="shared" si="2"/>
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="M29" s="9"/>
+        <v>17.119999999999997</v>
+      </c>
+      <c r="M29" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="15" t="s">
         <v>46</v>
       </c>
       <c r="D30" s="12">
@@ -1720,17 +1748,21 @@
         <f t="shared" si="1"/>
         <v>82.500000000000014</v>
       </c>
-      <c r="K30" s="9"/>
+      <c r="K30" s="9">
+        <v>0.5</v>
+      </c>
       <c r="L30" s="7">
         <f t="shared" si="2"/>
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="M30" s="9"/>
+        <v>17.619999999999997</v>
+      </c>
+      <c r="M30" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="36"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D31" s="13">
@@ -1757,17 +1789,21 @@
         <f t="shared" si="1"/>
         <v>84.40000000000002</v>
       </c>
-      <c r="K31" s="9"/>
+      <c r="K31" s="9">
+        <v>0.5</v>
+      </c>
       <c r="L31" s="7">
-        <f t="shared" si="2"/>
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="M31" s="9"/>
+        <f>K31+L30</f>
+        <v>18.119999999999997</v>
+      </c>
+      <c r="M31" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="36"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="13">
@@ -1794,17 +1830,21 @@
         <f t="shared" si="1"/>
         <v>86.300000000000026</v>
       </c>
-      <c r="K32" s="7"/>
+      <c r="K32" s="7">
+        <v>0.7</v>
+      </c>
       <c r="L32" s="7">
         <f t="shared" si="2"/>
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="M32" s="7"/>
+        <v>18.819999999999997</v>
+      </c>
+      <c r="M32" s="7">
+        <v>9</v>
+      </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="36"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="29" t="s">
+      <c r="A33" s="39"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="13">
@@ -1831,17 +1871,21 @@
         <f t="shared" si="1"/>
         <v>90.000000000000028</v>
       </c>
-      <c r="K33" s="7"/>
+      <c r="K33" s="7">
+        <v>1.3</v>
+      </c>
       <c r="L33" s="7">
         <f t="shared" si="2"/>
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="M33" s="7"/>
+        <v>20.119999999999997</v>
+      </c>
+      <c r="M33" s="7">
+        <v>9</v>
+      </c>
     </row>
     <row r="34" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="36"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="30" t="s">
+      <c r="A34" s="39"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D34" s="13">
@@ -1868,17 +1912,21 @@
         <f t="shared" si="1"/>
         <v>97.400000000000034</v>
       </c>
-      <c r="K34" s="7"/>
+      <c r="K34" s="7">
+        <v>0.5</v>
+      </c>
       <c r="L34" s="7">
         <f t="shared" si="2"/>
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="M34" s="7"/>
+        <v>20.619999999999997</v>
+      </c>
+      <c r="M34" s="7">
+        <v>9</v>
+      </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="37"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="30" t="s">
+      <c r="A35" s="40"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D35" s="13">
@@ -1905,12 +1953,16 @@
         <f t="shared" si="1"/>
         <v>101.10000000000004</v>
       </c>
-      <c r="K35" s="7"/>
+      <c r="K35" s="7">
+        <v>0.5</v>
+      </c>
       <c r="L35" s="7">
         <f t="shared" si="2"/>
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="M35" s="7"/>
+        <v>21.119999999999997</v>
+      </c>
+      <c r="M35" s="7">
+        <v>9</v>
+      </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D36" s="6">
@@ -1924,16 +1976,10 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="L8:L13"/>
-    <mergeCell ref="M8:M13"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A35"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E8:E13"/>
@@ -1948,10 +1994,16 @@
     <mergeCell ref="I8:I13"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A35"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="L8:L13"/>
+    <mergeCell ref="M8:M13"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="G8:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/NoteBook/task and schedule plans and actual/TASK_Oscar_Ciclo2.xlsx
+++ b/NoteBook/task and schedule plans and actual/TASK_Oscar_Ciclo2.xlsx
@@ -461,6 +461,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -470,12 +506,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -496,36 +526,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,12 +854,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -868,192 +868,192 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="30">
         <v>41749</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="24">
         <v>2</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="19" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="19" t="s">
+      <c r="E7" s="33"/>
+      <c r="F7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="19" t="s">
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="21"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="33"/>
     </row>
     <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="25" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
     </row>
     <row r="13" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
@@ -1141,7 +1141,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="19" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="5"/>
@@ -1184,7 +1184,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="5"/>
       <c r="C17" s="15" t="s">
         <v>28</v>
@@ -1225,7 +1225,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="5"/>
       <c r="C18" s="15" t="s">
         <v>43</v>
@@ -1266,7 +1266,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="5"/>
@@ -1309,7 +1309,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="5"/>
       <c r="C20" s="15" t="s">
         <v>45</v>
@@ -1350,7 +1350,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="5"/>
       <c r="C21" s="15" t="s">
         <v>37</v>
@@ -1387,7 +1387,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="5"/>
       <c r="C22" s="15" t="s">
         <v>38</v>
@@ -1428,7 +1428,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="38"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="5"/>
       <c r="C23" s="15" t="s">
         <v>46</v>
@@ -1469,7 +1469,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="5"/>
@@ -1512,7 +1512,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="5"/>
       <c r="C25" s="15" t="s">
         <v>24</v>
@@ -1542,18 +1542,18 @@
         <v>52.900000000000006</v>
       </c>
       <c r="K25" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L25" s="7">
         <f t="shared" si="2"/>
-        <v>12.62</v>
+        <v>14.62</v>
       </c>
       <c r="M25" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="5"/>
       <c r="C26" s="15" t="s">
         <v>48</v>
@@ -1587,14 +1587,14 @@
       </c>
       <c r="L26" s="7">
         <f t="shared" si="2"/>
-        <v>14.62</v>
+        <v>16.619999999999997</v>
       </c>
       <c r="M26" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="5"/>
@@ -1630,14 +1630,14 @@
       </c>
       <c r="L27" s="7">
         <f t="shared" si="2"/>
-        <v>15.62</v>
+        <v>17.619999999999997</v>
       </c>
       <c r="M27" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="39"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="5"/>
       <c r="C28" s="15" t="s">
         <v>40</v>
@@ -1671,14 +1671,14 @@
       </c>
       <c r="L28" s="7">
         <f t="shared" si="2"/>
-        <v>16.119999999999997</v>
+        <v>18.119999999999997</v>
       </c>
       <c r="M28" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="39"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="5"/>
       <c r="C29" s="15" t="s">
         <v>38</v>
@@ -1712,14 +1712,14 @@
       </c>
       <c r="L29" s="7">
         <f t="shared" si="2"/>
-        <v>17.119999999999997</v>
+        <v>19.119999999999997</v>
       </c>
       <c r="M29" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="39"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="5"/>
       <c r="C30" s="15" t="s">
         <v>46</v>
@@ -1753,14 +1753,14 @@
       </c>
       <c r="L30" s="7">
         <f t="shared" si="2"/>
-        <v>17.619999999999997</v>
+        <v>19.619999999999997</v>
       </c>
       <c r="M30" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="39"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="5"/>
       <c r="C31" s="15" t="s">
         <v>41</v>
@@ -1794,14 +1794,14 @@
       </c>
       <c r="L31" s="7">
         <f>K31+L30</f>
-        <v>18.119999999999997</v>
+        <v>20.119999999999997</v>
       </c>
       <c r="M31" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="39"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="5"/>
       <c r="C32" s="15" t="s">
         <v>42</v>
@@ -1835,14 +1835,14 @@
       </c>
       <c r="L32" s="7">
         <f t="shared" si="2"/>
-        <v>18.819999999999997</v>
+        <v>20.819999999999997</v>
       </c>
       <c r="M32" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="39"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="18"/>
       <c r="C33" s="15" t="s">
         <v>25</v>
@@ -1876,14 +1876,14 @@
       </c>
       <c r="L33" s="7">
         <f t="shared" si="2"/>
-        <v>20.119999999999997</v>
+        <v>22.119999999999997</v>
       </c>
       <c r="M33" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="39"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="18"/>
       <c r="C34" s="16" t="s">
         <v>38</v>
@@ -1917,14 +1917,14 @@
       </c>
       <c r="L34" s="7">
         <f t="shared" si="2"/>
-        <v>20.619999999999997</v>
+        <v>22.619999999999997</v>
       </c>
       <c r="M34" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="18"/>
       <c r="C35" s="16" t="s">
         <v>46</v>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="L35" s="7">
         <f t="shared" si="2"/>
-        <v>21.119999999999997</v>
+        <v>23.119999999999997</v>
       </c>
       <c r="M35" s="7">
         <v>9</v>
@@ -1976,24 +1976,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A35"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E8:E13"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="B8:B13"/>
@@ -2004,6 +1986,24 @@
     <mergeCell ref="M8:M13"/>
     <mergeCell ref="F8:F13"/>
     <mergeCell ref="G8:G13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A35"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E8:E13"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/NoteBook/task and schedule plans and actual/TASK_Oscar_Ciclo2.xlsx
+++ b/NoteBook/task and schedule plans and actual/TASK_Oscar_Ciclo2.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="19440" windowHeight="7815"/>
+    <workbookView xWindow="240" yWindow="140" windowWidth="19440" windowHeight="7820"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -285,10 +290,10 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -297,57 +302,57 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -355,53 +360,53 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,6 +466,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -475,57 +531,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,229 +838,228 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="8.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.1640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="7.5" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="7.5" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:13" ht="18">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="16" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="35">
         <v>41749</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+    </row>
+    <row r="4" spans="1:13" ht="16" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="1:13" ht="16" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="33">
         <v>2</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:13" ht="16" thickBot="1">
+      <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="31" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="31" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="31" t="s">
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="32"/>
-      <c r="M7" s="33"/>
-    </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
+    </row>
+    <row r="8" spans="1:13" ht="30" customHeight="1">
+      <c r="A8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="25" t="s">
+      <c r="M8" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-    </row>
-    <row r="13" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+    </row>
+    <row r="13" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1">
       <c r="A14" s="17" t="s">
         <v>29</v>
       </c>
@@ -1097,7 +1101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15" thickBot="1">
       <c r="A15" s="17" t="s">
         <v>30</v>
       </c>
@@ -1140,8 +1144,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:13" ht="29" thickBot="1">
+      <c r="A16" s="36" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="5"/>
@@ -1183,8 +1187,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
+    <row r="17" spans="1:13" ht="15" thickBot="1">
+      <c r="A17" s="37"/>
       <c r="B17" s="5"/>
       <c r="C17" s="15" t="s">
         <v>28</v>
@@ -1224,8 +1228,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
+    <row r="18" spans="1:13" ht="15" thickBot="1">
+      <c r="A18" s="38"/>
       <c r="B18" s="5"/>
       <c r="C18" s="15" t="s">
         <v>43</v>
@@ -1265,8 +1269,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:13" ht="15" thickBot="1">
+      <c r="A19" s="36" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="5"/>
@@ -1308,8 +1312,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
+    <row r="20" spans="1:13" ht="15" thickBot="1">
+      <c r="A20" s="37"/>
       <c r="B20" s="5"/>
       <c r="C20" s="15" t="s">
         <v>45</v>
@@ -1349,8 +1353,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
+    <row r="21" spans="1:13" ht="15" thickBot="1">
+      <c r="A21" s="37"/>
       <c r="B21" s="5"/>
       <c r="C21" s="15" t="s">
         <v>37</v>
@@ -1386,8 +1390,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
+    <row r="22" spans="1:13" ht="29" thickBot="1">
+      <c r="A22" s="37"/>
       <c r="B22" s="5"/>
       <c r="C22" s="15" t="s">
         <v>38</v>
@@ -1427,8 +1431,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
+    <row r="23" spans="1:13" ht="15" thickBot="1">
+      <c r="A23" s="38"/>
       <c r="B23" s="5"/>
       <c r="C23" s="15" t="s">
         <v>46</v>
@@ -1468,8 +1472,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
+    <row r="24" spans="1:13" ht="15" thickBot="1">
+      <c r="A24" s="36" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="5"/>
@@ -1511,8 +1515,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
+    <row r="25" spans="1:13" ht="15" thickBot="1">
+      <c r="A25" s="37"/>
       <c r="B25" s="5"/>
       <c r="C25" s="15" t="s">
         <v>24</v>
@@ -1552,8 +1556,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
+    <row r="26" spans="1:13" ht="15" thickBot="1">
+      <c r="A26" s="38"/>
       <c r="B26" s="5"/>
       <c r="C26" s="15" t="s">
         <v>48</v>
@@ -1593,8 +1597,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+    <row r="27" spans="1:13" ht="15" thickBot="1">
+      <c r="A27" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="5"/>
@@ -1636,8 +1640,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+    <row r="28" spans="1:13" ht="15" thickBot="1">
+      <c r="A28" s="39"/>
       <c r="B28" s="5"/>
       <c r="C28" s="15" t="s">
         <v>40</v>
@@ -1677,8 +1681,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
+    <row r="29" spans="1:13" ht="29" thickBot="1">
+      <c r="A29" s="39"/>
       <c r="B29" s="5"/>
       <c r="C29" s="15" t="s">
         <v>38</v>
@@ -1718,8 +1722,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+    <row r="30" spans="1:13" ht="15" thickBot="1">
+      <c r="A30" s="39"/>
       <c r="B30" s="5"/>
       <c r="C30" s="15" t="s">
         <v>46</v>
@@ -1759,8 +1763,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
+    <row r="31" spans="1:13" ht="15" thickBot="1">
+      <c r="A31" s="39"/>
       <c r="B31" s="5"/>
       <c r="C31" s="15" t="s">
         <v>41</v>
@@ -1800,8 +1804,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
+    <row r="32" spans="1:13" ht="15" thickBot="1">
+      <c r="A32" s="39"/>
       <c r="B32" s="5"/>
       <c r="C32" s="15" t="s">
         <v>42</v>
@@ -1841,8 +1845,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
+    <row r="33" spans="1:13" ht="15" thickBot="1">
+      <c r="A33" s="39"/>
       <c r="B33" s="18"/>
       <c r="C33" s="15" t="s">
         <v>25</v>
@@ -1882,8 +1886,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
+    <row r="34" spans="1:13" ht="29" thickBot="1">
+      <c r="A34" s="39"/>
       <c r="B34" s="18"/>
       <c r="C34" s="16" t="s">
         <v>38</v>
@@ -1923,8 +1927,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+    <row r="35" spans="1:13" ht="15" thickBot="1">
+      <c r="A35" s="40"/>
       <c r="B35" s="18"/>
       <c r="C35" s="16" t="s">
         <v>46</v>
@@ -1964,7 +1968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="15" thickBot="1">
       <c r="D36" s="6">
         <f>SUM(D14:D35)</f>
         <v>27</v>
@@ -1976,21 +1980,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="L8:L13"/>
-    <mergeCell ref="M8:M13"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E3:G3"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A26"/>
@@ -2004,9 +1993,28 @@
     <mergeCell ref="I8:I13"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="L8:L13"/>
+    <mergeCell ref="M8:M13"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="G8:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2016,9 +2024,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2028,8 +2041,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>